--- a/data/trans_bre/P2A_ner_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,3</t>
+          <t>0,36; 4,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,14</t>
+          <t>1,06; 5,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 13,91</t>
+          <t>7,1; 13,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,11</t>
+          <t>-0,78; 5,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 131,93</t>
+          <t>5,91; 114,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 142,92</t>
+          <t>17,1; 148,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,9; 214,56</t>
+          <t>75,43; 218,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 69,52</t>
+          <t>-6,97; 67,94</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,0</t>
+          <t>0,77; 2,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,31</t>
+          <t>0,15; 2,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,86</t>
+          <t>3,65; 6,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 19,98</t>
+          <t>0,25; 23,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,64; 206,66</t>
+          <t>30,2; 206,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 128,34</t>
+          <t>3,39; 135,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,26; 212,2</t>
+          <t>82,94; 214,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 338,55</t>
+          <t>3,98; 404,67</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,87</t>
+          <t>-2,51; 0,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,9</t>
+          <t>-3,34; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,13</t>
+          <t>-1,04; 3,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,62</t>
+          <t>-2,46; 1,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-76,69; 75,27</t>
+          <t>-79,69; 51,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,44; 86,61</t>
+          <t>-65,57; 81,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 226,1</t>
+          <t>-29,25; 191,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 61,53</t>
+          <t>-47,07; 64,07</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,73</t>
+          <t>0,94; 2,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,83</t>
+          <t>0,9; 2,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,81</t>
+          <t>5,16; 7,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 12,01</t>
+          <t>0,62; 15,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 117,4</t>
+          <t>29,92; 119,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,34; 110,01</t>
+          <t>24,18; 105,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,71; 193,76</t>
+          <t>98,6; 189,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 205,12</t>
+          <t>9,3; 250,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_ner_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>57,03%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,11</t>
+          <t>0,4; 4,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 5,05</t>
+          <t>0,45; 4,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 114,48</t>
+          <t>6,63; 114,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 67,94</t>
+          <t>5,95; 139,43</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>322,45%</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,98</t>
+          <t>0,65; 2,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 23,45</t>
+          <t>0,65; 38,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,2; 206,31</t>
+          <t>26,2; 194,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 404,67</t>
+          <t>20,0; 1391,68</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,64</t>
+          <t>-1,68; 1,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 64,07</t>
+          <t>-46,23; 107,76</t>
         </is>
       </c>
     </row>
@@ -935,12 +935,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,91%</t>
+          <t>206,73%</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,82</t>
+          <t>0,94; 2,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 15,52</t>
+          <t>1,03; 27,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,92; 119,21</t>
+          <t>28,71; 116,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 250,91</t>
+          <t>29,9; 869,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_ner_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,17</t>
+          <t>0,51; 4,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,18</t>
+          <t>0,91; 4,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 13,96</t>
+          <t>7,57; 13,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,78</t>
+          <t>0,34; 4,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 114,92</t>
+          <t>9,23; 121,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 148,1</t>
+          <t>15,92; 145,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,43; 218,02</t>
+          <t>78,15; 213,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 139,43</t>
+          <t>5,07; 139,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,87</t>
+          <t>0,65; 2,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,33</t>
+          <t>0,09; 2,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,82</t>
+          <t>3,85; 6,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 38,22</t>
+          <t>0,72; 34,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 194,26</t>
+          <t>24,2; 190,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 135,96</t>
+          <t>2,09; 136,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,94; 214,75</t>
+          <t>84,83; 208,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,0; 1391,68</t>
+          <t>22,31; 1343,21</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,66</t>
+          <t>-2,65; 0,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,98</t>
+          <t>-3,28; 1,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,85</t>
+          <t>-1,34; 3,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,7</t>
+          <t>-1,5; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,69; 51,46</t>
+          <t>-80,62; 49,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 81,85</t>
+          <t>-64,43; 77,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 191,56</t>
+          <t>-31,74; 186,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 107,76</t>
+          <t>-44,98; 112,82</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,79</t>
+          <t>0,8; 2,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,82</t>
+          <t>0,99; 2,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,74</t>
+          <t>5,17; 7,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 27,8</t>
+          <t>1,09; 23,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,71; 116,58</t>
+          <t>24,12; 112,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 105,55</t>
+          <t>28,02; 110,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,6; 189,62</t>
+          <t>101,43; 195,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,9; 869,15</t>
+          <t>31,98; 844,88</t>
         </is>
       </c>
     </row>
